--- a/data/vocabulary_quiz.xlsx
+++ b/data/vocabulary_quiz.xlsx
@@ -85,7 +85,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-4180978083242764284" xfId="1" hidden="0"/>
+    <cellStyle name="3594176268405282133" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,508 +465,478 @@
     <row r="1" ht="22" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>distract</t>
+          <t>competent</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>(주의를)산만하게 하다, 빗기게 하다</t>
+          <t>유능한, 능숙한</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>회의</t>
+          <t>참여, 참가, 가입</t>
         </is>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>refute</t>
+          <t>strictly</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>부인하다, 반박하다</t>
+          <t>엄격히</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>constraint</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>제한</t>
+          <t>보내다, 전근시키다</t>
         </is>
       </c>
     </row>
     <row r="3" ht="22" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>convince</t>
+          <t>award(v)</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>납득시키다, 확신시키다</t>
+          <t>(상 등을) 수여하다</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>report(n)</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>보고서; 보도, 기록</t>
+          <t>제안하다, 추천하다</t>
         </is>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>constructive</t>
+          <t>search</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>건설적인</t>
+          <t>찾기, 수색, 조사</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>press(v)</t>
+          <t>promote</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>누르다</t>
+          <t>승진시키다, 촉진하다</t>
         </is>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>report(v)</t>
+          <t>inexperienced</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>보고하다; 출두하다, (직장/회의 등에 도착을)알리다</t>
+          <t>미숙한, 경험 없는</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>understanding(a)</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>이해심 있는</t>
+          <t>일하다, 근무하다</t>
         </is>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>crowded</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>붐비는, 복잡한</t>
+          <t>경영의, 관리의</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>accomplishment</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>(연설/수업 등을)하다</t>
+          <t>성과, 업적</t>
         </is>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>coordinate</t>
+          <t>unanimously</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>조정</t>
+          <t>만장일치로</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>agenda</t>
+          <t>preference</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>의제, 의사일정</t>
+          <t>선호</t>
         </is>
       </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>enclosed</t>
+          <t>congratulate</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>동봉된</t>
+          <t>축하하다</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>defer</t>
+          <t>evaluate</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>연기하다, 미루다</t>
+          <t>평가하다</t>
         </is>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>논의하다, 토론하다</t>
+          <t>의무적인</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>preside</t>
+          <t>dedication</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>(회의의)사회를 보다, ~의 의장을 맡아보다</t>
+          <t>헌신</t>
         </is>
       </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>encouragement</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>의견을 달리하다, 다르다</t>
+          <t>격려</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>record(n)</t>
+          <t>retire</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>기록; 경력, 이력</t>
+          <t>은퇴하다, 퇴직하다</t>
         </is>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>early</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>승인하다, 찬성하다</t>
+          <t>시간상 이른, 조기의</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>resignation</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>논평하다, 언급하다</t>
+          <t>사임, 사직, 사직서</t>
         </is>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>persuasive</t>
+          <t>reward(v)</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>설득력 있는</t>
+          <t>~에 보답하다, 보상하다</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>mention</t>
+          <t>award(n)</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>언급하다</t>
+          <t>상</t>
         </is>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>irrelevant</t>
+          <t>radically</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>관계가 없는, 무관한</t>
+          <t>완전히, 철저히</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>management</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>반대하다</t>
+          <t>경영진, 경영</t>
         </is>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>outcome</t>
+          <t>reward(n)</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>결과</t>
+          <t>보상, 포상</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>unanimous</t>
+          <t>reorganize</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>만장일치의, 동의하는</t>
+          <t>재편성하다, 재조직하다</t>
         </is>
       </c>
     </row>
     <row r="15" ht="22" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>record(v)</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>기록하다</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>organize</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>준비하다, 조직하다, 정리하다</t>
+          <t>지명하다, 지정하다</t>
         </is>
       </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>praise</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>쉬운, 용이한</t>
+          <t>칭찬</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>breif</t>
+          <t>appoint</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>~에게 간단히 설명하다, 브리핑하다</t>
+          <t>임명하다, 지명하다</t>
         </is>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>undergo</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>겪다, 거치다, 경험하다</t>
+          <t>리더십, 지도력</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>adjourn</t>
+          <t>predict</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>(회의 등을) 휴회하다</t>
+          <t>예측하다</t>
         </is>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>consensus</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>여론, 일치된 의견</t>
+          <t>실적, 성과; 공연, 연주, 악기</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>phase</t>
+          <t>dismiss</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>단계</t>
+          <t>해임하다, 해고하다</t>
         </is>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>coincidentally</t>
+          <t>appreciation</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>우연히, 일치하게, 동시 발생적으로</t>
+          <t>감사</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>usually</t>
+          <t>nomination</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>보통, 일반적으로</t>
+          <t>임명, 지명</t>
         </is>
       </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>narrowly</t>
+          <t>skilled</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>주의 깊게, 좁게; 가까스로, 간신히, 겨우</t>
+          <t>숙련된, 노련한</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>emphasis</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>강조, 중점</t>
+          <t>진행, 진척, 진전</t>
         </is>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>reschedule</t>
+          <t>independence</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>일정을 바꾸다</t>
+          <t>독립성</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>suggestion</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>제안</t>
+          <t>예외적인, 뛰어난</t>
         </is>
       </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>주의, 경청</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>determine</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>알아내다; 결정하다, 확정하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="1">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>press(n)</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>언론(계), 보도기관</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>convene</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>(회원 등이)모이다, (회의가)개최되다</t>
-        </is>
-      </c>
+          <t>토의, 심의</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr"/>
+      <c r="D22" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -979,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +964,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>(주의를)산만하게 하다, 빗기게 하다</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>competent</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
@@ -1011,41 +981,41 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>부인하다, 반박하다</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr"/>
+          <t>엄격히</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>보내다, 전근시키다</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="22" customHeight="1">
-      <c r="A3" s="1" t="inlineStr"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>납득시키다, 확신시키다</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr"/>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>보고서; 보도, 기록</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>award(v)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>건설적인</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>누르다</t>
+          <t>승진시키다, 촉진하다</t>
         </is>
       </c>
     </row>
@@ -1053,41 +1023,41 @@
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>보고하다; 출두하다, (직장/회의 등에 도착을)알리다</t>
+          <t>미숙한, 경험 없는</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>이해심 있는</t>
+          <t>일하다, 근무하다</t>
         </is>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>crowded</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr"/>
+      <c r="A6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>경영의, 관리의</t>
+        </is>
+      </c>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>(연설/수업 등을)하다</t>
+          <t>성과, 업적</t>
         </is>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>coordinate</t>
+          <t>unanimously</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>의제, 의사일정</t>
+          <t>선호</t>
         </is>
       </c>
     </row>
@@ -1095,41 +1065,41 @@
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>동봉된</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>연기하다, 미루다</t>
-        </is>
-      </c>
+          <t>축하하다</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>evaluate</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr"/>
     </row>
     <row r="9" ht="22" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>(회의의)사회를 보다, ~의 의장을 맡아보다</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>의무적인</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>dedication</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr"/>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>encouragement</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr"/>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>기록; 경력, 이력</t>
+          <t>은퇴하다, 퇴직하다</t>
         </is>
       </c>
     </row>
@@ -1137,183 +1107,165 @@
       <c r="A11" s="1" t="inlineStr"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>승인하다, 찬성하다</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr"/>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>논평하다, 언급하다</t>
-        </is>
-      </c>
+          <t>시간상 이른, 조기의</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>resignation</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr"/>
     </row>
     <row r="12" ht="22" customHeight="1">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>persuasive</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>mention</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr"/>
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>~에 보답하다, 보상하다</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>상</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>irrelevant</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr"/>
+      <c r="A13" s="1" t="inlineStr"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>완전히, 철저히</t>
+        </is>
+      </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>반대하다</t>
+          <t>경영진, 경영</t>
         </is>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>unanimous</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr"/>
+      <c r="A14" s="1" t="inlineStr"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>보상, 포상</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>재편성하다, 재조직하다</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="22" customHeight="1">
-      <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>기록하다</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr"/>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>준비하다, 조직하다, 정리하다</t>
-        </is>
-      </c>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>appraisal</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>designate</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr"/>
     </row>
     <row r="16" ht="22" customHeight="1">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>~에게 간단히 설명하다, 브리핑하다</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="inlineStr"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>칭찬</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>appoint</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="1" t="inlineStr"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>겪다, 거치다, 경험하다</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>adjourn</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr"/>
+          <t>리더십, 지도력</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr"/>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>예측하다</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="1" t="inlineStr"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>여론, 일치된 의견</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr"/>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>단계</t>
-        </is>
-      </c>
+          <t>실적, 성과; 공연, 연주, 악기</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>dismiss</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr"/>
     </row>
     <row r="19" ht="22" customHeight="1">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>coincidentally</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr"/>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>보통, 일반적으로</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="inlineStr"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>감사</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>nomination</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="1" t="inlineStr"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>주의 깊게, 좁게; 가까스로, 간신히, 겨우</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr"/>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>강조, 중점</t>
-        </is>
-      </c>
+          <t>숙련된, 노련한</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr"/>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>reschedule</t>
+          <t>independence</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>제안</t>
-        </is>
-      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr"/>
     </row>
     <row r="22" ht="22" customHeight="1">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>attention</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr"/>
+      <c r="A22" s="1" t="inlineStr"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>토의, 심의</t>
+        </is>
+      </c>
       <c r="C22" s="1" t="inlineStr"/>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>알아내다; 결정하다, 확정하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="1">
-      <c r="A23" s="1" t="inlineStr"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>언론(계), 보도기관</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>convene</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr"/>
+      <c r="D22" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
